--- a/biology/Botanique/Humus/Humus.xlsx
+++ b/biology/Botanique/Humus/Humus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'humus est la couche supérieure du sol créée, entretenue et modifiée par la décomposition de la matière organique, principalement par l'action combinée des animaux, des bactéries et des champignons du sol. L’humus est une matière souple et aérée, qui absorbe et retient bien l'eau, de pH variable selon que la matière organique est liée ou non à des minéraux, d'aspect foncé (brunâtre à noir), à l’odeur caractéristique, variable selon qu'il s'agit d'une des nombreuses formes d'humus forestier[3], de prairie, ou de sol cultivé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'humus est la couche supérieure du sol créée, entretenue et modifiée par la décomposition de la matière organique, principalement par l'action combinée des animaux, des bactéries et des champignons du sol. L’humus est une matière souple et aérée, qui absorbe et retient bien l'eau, de pH variable selon que la matière organique est liée ou non à des minéraux, d'aspect foncé (brunâtre à noir), à l’odeur caractéristique, variable selon qu'il s'agit d'une des nombreuses formes d'humus forestier, de prairie, ou de sol cultivé.
 L'humus se distingue du compost par son origine naturelle, mais partage avec lui beaucoup de propriétés, notamment sa capacité à retenir l'eau et les nutriments. Dans le compartiment de la biosphère qu'est le sol, l'humus est la partie biologiquement la plus active. C’est dans les zones tempérées qu’il est le plus abondant, mais on a récemment redécouvert et étudié une sorte d'humus ancien et d'origine humaine en Amazonie : la terra preta, ou terre noire. L'humus est absent des déserts et, plus généralement, de tout milieu dépourvu de végétation (la haute montagne, par exemple).
-L'humification est un processus biochimique  de néosynthèse de substance organique par augmentation de la taille de certaines molécules[4].
-La capacité d'échange naturelle d'un humus ainsi que sa décomposition lente délivrent aux racines des plantes de l'azote, du phosphore et tous les éléments nutritifs indispensables à la croissance des végétaux. Si l'humus est enfoui par labour ou asphyxié (inondation durable, compression, bâchage étanche), il se dégrade et libère des composés toxiques ainsi que du méthane[5],[6].
+L'humification est un processus biochimique  de néosynthèse de substance organique par augmentation de la taille de certaines molécules.
+La capacité d'échange naturelle d'un humus ainsi que sa décomposition lente délivrent aux racines des plantes de l'azote, du phosphore et tous les éléments nutritifs indispensables à la croissance des végétaux. Si l'humus est enfoui par labour ou asphyxié (inondation durable, compression, bâchage étanche), il se dégrade et libère des composés toxiques ainsi que du méthane,.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Avant que le microscope ne mette en évidence le fait que ce sont des micro-organismes et des invertébrés qui produisent l'humus, il était considéré comme une substance chimique inerte ; le Dictionnaire Littré, de la langue française (1872-1877) le définit comme « terre végétale » et en donne la sous-définition suivante : « Terme de chimie. Matière brune peu soluble dans l'eau, soluble dans les alcalis, provenant de la décomposition et de la combustion lente des substances organiques dans le sol ou à sa surface ». Cependant il faut signaler que le pédologue-écologue danois P.E. Müller avait décrit dès le XIXe siècle, à l'aide d'observations au microscope, la plupart des organismes connus aujourd'hui comme participant à la formation de l'humus[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Avant que le microscope ne mette en évidence le fait que ce sont des micro-organismes et des invertébrés qui produisent l'humus, il était considéré comme une substance chimique inerte ; le Dictionnaire Littré, de la langue française (1872-1877) le définit comme « terre végétale » et en donne la sous-définition suivante : « Terme de chimie. Matière brune peu soluble dans l'eau, soluble dans les alcalis, provenant de la décomposition et de la combustion lente des substances organiques dans le sol ou à sa surface ». Cependant il faut signaler que le pédologue-écologue danois P.E. Müller avait décrit dès le XIXe siècle, à l'aide d'observations au microscope, la plupart des organismes connus aujourd'hui comme participant à la formation de l'humus.
 « L'humus, fondement de la vie. Il nous faut insister maintenant sur l'importance vitale de cette matière que nous venons de voir apparaître, c'est-à-dire l'humus. Le définir en une simple formule chimique est impossible. Il n'y a pas un humus, mais des humus, qui varient avec les sols, les climats et les végétations, tandis que l'on rencontre dans les sols des matières organiques à toutes les étapes de leur transformation, les unes encore jeunes, les autres, presque totalement ou totalement transformées. »
-— André Birre, Une autre révolution : pour se réconcilier avec la terre, 1976[8]</t>
+— André Birre, Une autre révolution : pour se réconcilier avec la terre, 1976</t>
         </is>
       </c>
     </row>
@@ -546,10 +560,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot latin humus désignant la « terre » est cité par Curtius (Ier siècle) comme provenant d'un mot grec signifiant « à terre », locatif d'un substantif hors d'usage.
-Le mot latin humus, comme d'ailleurs le mot homo « homme »[9], provient de la racine indo-européenne *dh(e)ghyōm- qui signifie terre[10].
+Le mot latin humus, comme d'ailleurs le mot homo « homme », provient de la racine indo-européenne *dh(e)ghyōm- qui signifie terre.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Formation des humus ou humification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation des humus ou humification est dite « biogénique », c’est-à-dire que l'humus peut se former par simple oxydation de la nécromasse en l'absence d'organismes vivants mais ce processus est considérablement accéléré lorsque des organismes vivants ingèrent la matière organique ou sécrètent des enzymes qui la transforment.
-La matière organique qui est à la base de l'humus est d'origine essentiellement végétale, puis microbienne et animale lors du processus de transformation, alors que les composants du sol profond sont en grande partie d'origine minérale. La matière première de l'humus est la matière organique fraîche (MOF) : litière en forêt, résidus de culture, auxquelles s'ajoutent des composants d'origine animale[11] déposés dans les horizons superficiels (nom donné à la surface du sol par les pédologues) ou remontés par les animaux fouisseurs, dont les vers de terre. Cette matière subit une évolution plus ou moins rapide (selon les conditions de température, d'humidité, d'acidité ou la présence d'inhibiteurs tels que certains métaux lourds ou toxiques) qui permet une transformation en plusieurs étapes menant à des composés minéraux (solides ou gazeux) et des composés organiques complexes[11], électronégatifs et relativement stables. Selon la taille des molécules ainsi produites, il s'agit de composés insolubles (humines) ou de colloïdes (acides humiques et acides fulviques) susceptibles de migrer dans les sols. La présence en grande quantité de cations métalliques dans le sol tels que le fer ou le calcium ou bien encore d'argiles insolubilise les acides humiques et fulviques et empêche leur migration, formant ce que l'on appelle des sols bruns. En présence de quantités faibles de cations métalliques, la migration des molécules humiques de petite taille (acides fulviques) entraîne les faibles quantités de métaux présents dans les horizons de surface, formant ce que l'on appelle les podzols. L'activité de la faune fouisseuse (vers de terre, fourmis, termites) contribue à une mise en contact rapide des composés humiques avec la matière minérale, empêchant ainsi leur lessivage et donc leur perte pour les écosystèmes ou les agrosystèmes.
+La matière organique qui est à la base de l'humus est d'origine essentiellement végétale, puis microbienne et animale lors du processus de transformation, alors que les composants du sol profond sont en grande partie d'origine minérale. La matière première de l'humus est la matière organique fraîche (MOF) : litière en forêt, résidus de culture, auxquelles s'ajoutent des composants d'origine animale déposés dans les horizons superficiels (nom donné à la surface du sol par les pédologues) ou remontés par les animaux fouisseurs, dont les vers de terre. Cette matière subit une évolution plus ou moins rapide (selon les conditions de température, d'humidité, d'acidité ou la présence d'inhibiteurs tels que certains métaux lourds ou toxiques) qui permet une transformation en plusieurs étapes menant à des composés minéraux (solides ou gazeux) et des composés organiques complexes, électronégatifs et relativement stables. Selon la taille des molécules ainsi produites, il s'agit de composés insolubles (humines) ou de colloïdes (acides humiques et acides fulviques) susceptibles de migrer dans les sols. La présence en grande quantité de cations métalliques dans le sol tels que le fer ou le calcium ou bien encore d'argiles insolubilise les acides humiques et fulviques et empêche leur migration, formant ce que l'on appelle des sols bruns. En présence de quantités faibles de cations métalliques, la migration des molécules humiques de petite taille (acides fulviques) entraîne les faibles quantités de métaux présents dans les horizons de surface, formant ce que l'on appelle les podzols. L'activité de la faune fouisseuse (vers de terre, fourmis, termites) contribue à une mise en contact rapide des composés humiques avec la matière minérale, empêchant ainsi leur lessivage et donc leur perte pour les écosystèmes ou les agrosystèmes.
 La matière organique qui, en se décomposant, produit l'humus est constituée :
 de fragments végétaux (feuilles, aiguilles, tiges, racines, bois, écorce, graines, pollens) en décomposition ;
 d'exsudats racinaires et d'exsudats végétaux (propolis) et animaux (miellat) au-dessus du sol ;
@@ -620,7 +638,9 @@
           <t>Formes d’humus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon que l'humus a été formé dans un sol aéré ou plutôt asphyxiant (en raison par exemple d'une saturation totale en eau ou d'une compaction répétée), on peut classer les humus en deux catégories.
 Humus formés en aérobiose :
@@ -657,9 +677,11 @@
           <t>Complexe argilo-humique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle complexe argilo-humique (CAH) ou complexe adsorbant l'association colloïdale d'argiles et d'humus. Ils se trouvent dans ce cas tous deux à l'état floculé à la suite du travail de la faune et des micro-organismes[12],[13] du sol. Les vers de terre jouent un rôle essentiel dans leur production, grâce à une capacité à lier des molécules négativement polarisées par un cation bivalent (le calcium ; Ca2+ en général). Une carence en calcium, notamment en milieu acide est source de dégradation (minéralisation de la matière organique) de ce complexe[14], mais d'autres facteurs entrent en jeu ; il semble notamment que des apports riches en protéines (comme avec le Bois raméal fragmenté), ou les mucus de certains organismes puissent aussi jouer un rôle dans la constitution de ces complexes qui deviennent stables et presque insolubles une fois desséchés (comme le ciment lorsqu'il prend et durcit), ce qui explique la résistance de l'humus à l'eau et à l'érosion, ainsi que le maintien de sa structure et son exceptionnelle capillarité. Ce complexe facilite la pénétration du sol par les racines et les champignons, ainsi que leur approvisionnement en eau et sels minéraux. Il permet aussi l'aération de leurs racines. Il conditionne en particulier l'aptitude du sol à stocker l'eau quand les précipitations sont abondantes (ou pouvoir de rétention en eau) et à la restituer quand elles sont déficitaires et par conséquent à approvisionner les plantes au fur et à mesure de leurs besoins, qui varient selon les différentes phases du cycle végétatif.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle complexe argilo-humique (CAH) ou complexe adsorbant l'association colloïdale d'argiles et d'humus. Ils se trouvent dans ce cas tous deux à l'état floculé à la suite du travail de la faune et des micro-organismes, du sol. Les vers de terre jouent un rôle essentiel dans leur production, grâce à une capacité à lier des molécules négativement polarisées par un cation bivalent (le calcium ; Ca2+ en général). Une carence en calcium, notamment en milieu acide est source de dégradation (minéralisation de la matière organique) de ce complexe, mais d'autres facteurs entrent en jeu ; il semble notamment que des apports riches en protéines (comme avec le Bois raméal fragmenté), ou les mucus de certains organismes puissent aussi jouer un rôle dans la constitution de ces complexes qui deviennent stables et presque insolubles une fois desséchés (comme le ciment lorsqu'il prend et durcit), ce qui explique la résistance de l'humus à l'eau et à l'érosion, ainsi que le maintien de sa structure et son exceptionnelle capillarité. Ce complexe facilite la pénétration du sol par les racines et les champignons, ainsi que leur approvisionnement en eau et sels minéraux. Il permet aussi l'aération de leurs racines. Il conditionne en particulier l'aptitude du sol à stocker l'eau quand les précipitations sont abondantes (ou pouvoir de rétention en eau) et à la restituer quand elles sont déficitaires et par conséquent à approvisionner les plantes au fur et à mesure de leurs besoins, qui varient selon les différentes phases du cycle végétatif.
 Ces complexes peuvent de plus fixer des métaux lourds ou toxiques (éventuellement radioactifs), en limitant leur transfert aux plantes et à l'eau, ainsi qu'à la chaîne alimentaire.
 </t>
         </is>
@@ -689,15 +711,17 @@
           <t>Destruction de l’humus</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le labour dilue l'humus en l'enfouissant, causant une minéralisation trop rapide de la matière organique et des pertes de sol qui atteignent couramment 10 tonnes par an et par hectare en zone tempérée (perte moyenne par exemple mesurée dans le Bassin de Tubersent dans le Pas-de-Calais au début des années 1980-1990[17],[18],[19]) et jusqu'à plusieurs centaines de tonnes en zone tropicale.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le labour dilue l'humus en l'enfouissant, causant une minéralisation trop rapide de la matière organique et des pertes de sol qui atteignent couramment 10 tonnes par an et par hectare en zone tempérée (perte moyenne par exemple mesurée dans le Bassin de Tubersent dans le Pas-de-Calais au début des années 1980-1990) et jusqu'à plusieurs centaines de tonnes en zone tropicale.
 La disparition de l'humus se traduit aussi par un phénomène de glacis des sols labourés (battance) qui diminue fortement leur capacité à absorber l'eau. Celle-ci ruisselle en emportant les particules fines qui augmentent la turbidité des fleuves et rivières.
 Actuellement, il existe des méthodes permettant de produire des cultures en réduisant la destruction de l'humus, dont : 
 l'agriculture de conservation ;
 les techniques culturales simplifiées ;
-le rétablissement d'un enherbement contrôlé[20], sous les vignes dont les sols tendaient à se dégrader[21] par exemple[22] ;
-l'utilisation du bois raméal fragmenté[23] ;
+le rétablissement d'un enherbement contrôlé, sous les vignes dont les sols tendaient à se dégrader par exemple ;
+l'utilisation du bois raméal fragmenté ;
 l'agriculture naturelle.
 L'humus se dégrade naturellement par le processus de minéralisation secondaire (appelé K2), ce qui implique de mettre en œuvre des actions visant à limiter le phénomène (non-labour, etc.) et à apporter de la matière organique ligneuse et cellulosique.
 </t>
@@ -728,9 +752,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le calendrier républicain, Terre végétale était le nom donné au 7e jour du mois de nivôse[24].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, Terre végétale était le nom donné au 7e jour du mois de nivôse.
 </t>
         </is>
       </c>
